--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snidersa\git\CrimsonKnights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansarij\Winter-22-Workspace\CrimsonKnights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236B74E9-75EF-4038-BADB-E5AAD2239184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCEE59B-BED0-4871-84DF-3C44FBA69B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1728" windowWidth="17244" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>For each minion on your board, your hero has +2 attack and +1 AC</t>
   </si>
   <si>
-    <t>Tyreal</t>
-  </si>
-  <si>
     <t>You have no limit to the amount of Weapons and Equipment you can have on at a time.</t>
+  </si>
+  <si>
+    <t>Tyrael</t>
   </si>
 </sst>
 </file>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +633,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -648,7 +648,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
